--- a/data/master/employment_master.xlsx
+++ b/data/master/employment_master.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13589</v>
+        <v>263</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>188692</v>
+        <v>1470</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>56486</v>
+        <v>297</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -650,27 +650,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68592</v>
+        <v>370</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>91189</v>
+        <v>621</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32121</v>
+        <v>248</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59443</v>
+        <v>256</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>129118</v>
+        <v>791</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120613</v>
+        <v>892</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16095</v>
+        <v>149</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>151272</v>
+        <v>792</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>421639</v>
+        <v>1402</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>373527</v>
+        <v>1609</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>145673</v>
+        <v>799</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>186317</v>
+        <v>1044</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>71774</v>
+        <v>874</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>164978</v>
+        <v>734</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60479</v>
+        <v>646</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18866</v>
+        <v>374</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29248</v>
+        <v>542</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1432,27 +1432,27 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9091</v>
+        <v>263</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>44799</v>
+        <v>405</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>277183</v>
+        <v>1815</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34126</v>
+        <v>285</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1585,12 +1585,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63201</v>
+        <v>558</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>98344</v>
+        <v>911</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1708,27 +1708,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>119447</v>
+        <v>1115</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>179233</v>
+        <v>1406</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>63324</v>
+        <v>798</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>68654</v>
+        <v>417</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>367742</v>
+        <v>1974</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15170638</v>
+        <v>114674</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>373508</v>
+        <v>7052</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3724861</v>
+        <v>24120</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>873783</v>
+        <v>9493</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>700847</v>
+        <v>11016</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>288867</v>
+        <v>2290</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>526056</v>
+        <v>2966</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>440548</v>
+        <v>2557</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>794606</v>
+        <v>4322</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4404943</v>
+        <v>13109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>87467</v>
+        <v>825</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>341684</v>
+        <v>3317</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>405777</v>
+        <v>4559</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>458569</v>
+        <v>7931</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2545,18 +2545,18 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>428542</v>
+        <v>5847</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2597,12 +2597,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>160255</v>
+        <v>1751</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2674,27 +2674,27 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>615917</v>
+        <v>7846</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2720,27 +2720,27 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>456941</v>
+        <v>5673</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13589</v>
+        <v>1435</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>188692</v>
+        <v>2758</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>56486</v>
+        <v>816</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -2975,27 +2975,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68592</v>
+        <v>1054</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>91189</v>
+        <v>701</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32121</v>
+        <v>431</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59443</v>
+        <v>783</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>129118</v>
+        <v>1144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120613</v>
+        <v>1683</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16095</v>
+        <v>134</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>151272</v>
+        <v>1061</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3343,27 +3343,27 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>421639</v>
+        <v>1361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3389,11 +3389,11 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>373527</v>
+        <v>3190</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3404,12 +3404,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>145673</v>
+        <v>1159</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>186317</v>
+        <v>2487</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3496,12 +3496,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>71774</v>
+        <v>120</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>164978</v>
+        <v>4641</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60479</v>
+        <v>595</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18866</v>
+        <v>318</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29248</v>
+        <v>739</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3757,27 +3757,27 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9091</v>
+        <v>238</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>44799</v>
+        <v>62</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>277183</v>
+        <v>2739</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34126</v>
+        <v>985</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3910,12 +3910,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63201</v>
+        <v>429</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>98344</v>
+        <v>1161</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>119447</v>
+        <v>1427</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -4048,12 +4048,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>179233</v>
+        <v>277</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>63324</v>
+        <v>661</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>68654</v>
+        <v>433</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>367742</v>
+        <v>2547</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15170638</v>
+        <v>145894</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>373508</v>
+        <v>11217</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3724861</v>
+        <v>37569</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>873783</v>
+        <v>5918</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>700847</v>
+        <v>17327</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>288867</v>
+        <v>2016</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4539,16 +4539,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>526056</v>
+        <v>1705</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>440548</v>
+        <v>4628</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>794606</v>
+        <v>6990</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4404943</v>
+        <v>17133</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>87467</v>
+        <v>2300</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>341684</v>
+        <v>4239</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>405777</v>
+        <v>9182</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>458569</v>
+        <v>4777</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -4870,18 +4870,18 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>428542</v>
+        <v>5319</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -4922,12 +4922,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>160255</v>
+        <v>2833</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -4968,12 +4968,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -4999,27 +4999,27 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>615917</v>
+        <v>7756</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5045,27 +5045,27 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>456941</v>
+        <v>4985</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13589</v>
+        <v>4466</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>188692</v>
+        <v>51064</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5254,27 +5254,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>56486</v>
+        <v>4284</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68592</v>
+        <v>12854</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5346,27 +5346,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>91189</v>
+        <v>23215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32121</v>
+        <v>9014</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5438,27 +5438,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59443</v>
+        <v>10653</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5484,27 +5484,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>129118</v>
+        <v>34285</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120613</v>
+        <v>35184</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16095</v>
+        <v>3476</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5622,27 +5622,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>151272</v>
+        <v>36786</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>421639</v>
+        <v>48424</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -5683,12 +5683,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5714,27 +5714,27 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>373527</v>
+        <v>43946</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5760,7 +5760,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>145673</v>
+        <v>34334</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>186317</v>
+        <v>37103</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>71774</v>
+        <v>15316</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5898,27 +5898,27 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>164978</v>
+        <v>26348</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60479</v>
+        <v>16159</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18866</v>
+        <v>6655</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6036,11 +6036,11 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29248</v>
+        <v>7567</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6082,27 +6082,27 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9091</v>
+        <v>2975</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>44799</v>
+        <v>9850</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6174,27 +6174,27 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>277183</v>
+        <v>48690</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34126</v>
+        <v>6878</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -6235,12 +6235,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63201</v>
+        <v>16173</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>98344</v>
+        <v>14638</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6358,27 +6358,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>119447</v>
+        <v>29942</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>179233</v>
+        <v>35542</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>63324</v>
+        <v>15815</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6496,27 +6496,27 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>68654</v>
+        <v>20087</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6542,27 +6542,27 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>367742</v>
+        <v>67116</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15170638</v>
+        <v>2838025</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>373508</v>
+        <v>107765</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3724861</v>
+        <v>728841</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>873783</v>
+        <v>174216</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>700847</v>
+        <v>163900</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>288867</v>
+        <v>71708</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>526056</v>
+        <v>114474</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>440548</v>
+        <v>73271</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>794606</v>
+        <v>162833</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4404943</v>
+        <v>535602</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>87467</v>
+        <v>16818</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>341684</v>
+        <v>62221</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7140,7 +7140,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>405777</v>
+        <v>136365</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>458569</v>
+        <v>113828</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -7195,18 +7195,18 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>428542</v>
+        <v>101154</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -7247,12 +7247,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>160255</v>
+        <v>43730</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -7293,12 +7293,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7324,27 +7324,27 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>615917</v>
+        <v>132666</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7370,27 +7370,27 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>456941</v>
+        <v>98635</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13589</v>
+        <v>655</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>188692</v>
+        <v>7458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7579,27 +7579,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>56486</v>
+        <v>1372</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7625,27 +7625,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68592</v>
+        <v>2086</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>91189</v>
+        <v>2950</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32121</v>
+        <v>1442</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59443</v>
+        <v>1896</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>129118</v>
+        <v>4352</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120613</v>
+        <v>5063</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16095</v>
+        <v>591</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>151272</v>
+        <v>5075</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -7993,16 +7993,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>421639</v>
+        <v>11825</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8039,7 +8039,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>373527</v>
+        <v>8396</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>145673</v>
+        <v>4499</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>186317</v>
+        <v>6783</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>71774</v>
+        <v>2114</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8223,7 +8223,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>164978</v>
+        <v>5083</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60479</v>
+        <v>2500</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18866</v>
+        <v>699</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8361,7 +8361,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29248</v>
+        <v>907</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8407,27 +8407,27 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9091</v>
+        <v>365</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8453,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>44799</v>
+        <v>1595</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>277183</v>
+        <v>8381</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34126</v>
+        <v>1311</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -8560,12 +8560,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63201</v>
+        <v>2566</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>98344</v>
+        <v>2078</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8683,27 +8683,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>119447</v>
+        <v>4787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8729,7 +8729,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>179233</v>
+        <v>5452</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>63324</v>
+        <v>2012</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>68654</v>
+        <v>2980</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>367742</v>
+        <v>10532</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15170638</v>
+        <v>525305</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -8959,7 +8959,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>373508</v>
+        <v>15735</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3724861</v>
+        <v>117805</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>873783</v>
+        <v>35174</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>700847</v>
+        <v>26585</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>288867</v>
+        <v>12312</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>526056</v>
+        <v>22414</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>440548</v>
+        <v>14333</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>794606</v>
+        <v>32914</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4404943</v>
+        <v>137221</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9373,7 +9373,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>87467</v>
+        <v>2892</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9419,7 +9419,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>341684</v>
+        <v>11947</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9465,7 +9465,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>405777</v>
+        <v>15665</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>458569</v>
+        <v>17123</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -9520,18 +9520,18 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>428542</v>
+        <v>18258</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9603,7 +9603,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>160255</v>
+        <v>7283</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9649,27 +9649,27 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>615917</v>
+        <v>19060</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9695,27 +9695,27 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>456941</v>
+        <v>15692</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13589</v>
+        <v>474</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>188692</v>
+        <v>7839</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>56486</v>
+        <v>1277</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9950,27 +9950,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68592</v>
+        <v>2146</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>91189</v>
+        <v>3049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10042,7 +10042,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32121</v>
+        <v>1350</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -10062,7 +10062,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59443</v>
+        <v>1922</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10134,7 +10134,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>129118</v>
+        <v>4624</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120613</v>
+        <v>5252</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16095</v>
+        <v>580</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>151272</v>
+        <v>5586</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10318,16 +10318,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>421639</v>
+        <v>11315</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>373527</v>
+        <v>8970</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10410,7 +10410,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>145673</v>
+        <v>4784</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>186317</v>
+        <v>6134</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>71774</v>
+        <v>2254</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10548,7 +10548,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>164978</v>
+        <v>5244</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60479</v>
+        <v>2491</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18866</v>
+        <v>749</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10686,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29248</v>
+        <v>966</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10732,27 +10732,27 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9091</v>
+        <v>365</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10778,7 +10778,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>44799</v>
+        <v>1772</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>277183</v>
+        <v>8686</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10870,7 +10870,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34126</v>
+        <v>1088</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63201</v>
+        <v>2966</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>98344</v>
+        <v>2046</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11008,27 +11008,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>119447</v>
+        <v>4549</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>179233</v>
+        <v>5958</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11100,7 +11100,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>63324</v>
+        <v>2115</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>68654</v>
+        <v>2682</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11192,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>367742</v>
+        <v>11296</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11238,7 +11238,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15170638</v>
+        <v>503890</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>373508</v>
+        <v>14559</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11330,7 +11330,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3724861</v>
+        <v>120529</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>873783</v>
+        <v>31320</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>700847</v>
+        <v>24326</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11468,7 +11468,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>288867</v>
+        <v>10118</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11514,7 +11514,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>526056</v>
+        <v>18915</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>440548</v>
+        <v>14061</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>794606</v>
+        <v>29896</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11652,7 +11652,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4404943</v>
+        <v>138623</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11698,27 +11698,27 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>87467</v>
+        <v>2873</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11744,7 +11744,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>341684</v>
+        <v>10748</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11790,7 +11790,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>405777</v>
+        <v>13779</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>458569</v>
+        <v>14847</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -11845,18 +11845,18 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>428542</v>
+        <v>15015</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -11897,12 +11897,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>160255</v>
+        <v>5524</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -11974,27 +11974,27 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>615917</v>
+        <v>20041</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12020,27 +12020,27 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>456941</v>
+        <v>15843</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13721,7 +13721,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -14227,7 +14227,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -14319,7 +14319,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>
@@ -14365,7 +14365,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T08:30:43</t>
+          <t>2026-02-12T23:04:40</t>
         </is>
       </c>
     </row>

--- a/data/master/employment_master.xlsx
+++ b/data/master/employment_master.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10062,7 +10062,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10154,7 +10154,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10200,7 +10200,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10292,7 +10292,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11120,7 +11120,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11212,7 +11212,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12137,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13589</v>
+        <v>1435</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>188692</v>
+        <v>2758</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12229,7 +12229,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>56486</v>
+        <v>816</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12275,27 +12275,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68592</v>
+        <v>1054</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>91189</v>
+        <v>701</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12367,7 +12367,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32121</v>
+        <v>431</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12413,7 +12413,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59443</v>
+        <v>783</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12459,7 +12459,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>129118</v>
+        <v>1144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120613</v>
+        <v>1683</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16095</v>
+        <v>134</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>151272</v>
+        <v>1061</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12643,27 +12643,27 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>421639</v>
+        <v>1361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13721,7 +13721,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -14227,7 +14227,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -14319,7 +14319,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>
@@ -14365,7 +14365,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:04:40</t>
+          <t>2026-02-12T23:15:00</t>
         </is>
       </c>
     </row>

--- a/data/master/employment_master.xlsx
+++ b/data/master/employment_master.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3358,12 +3358,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3496,12 +3496,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4048,12 +4048,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4554,12 +4554,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4830,12 +4830,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4968,12 +4968,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -5453,12 +5453,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -6051,12 +6051,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -6189,12 +6189,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -7293,12 +7293,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -7594,12 +7594,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10062,7 +10062,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10154,7 +10154,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10200,7 +10200,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10292,7 +10292,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -10885,12 +10885,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11120,7 +11120,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11212,7 +11212,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>134</v>
+        <v>16095</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1061</v>
+        <v>151272</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1361</v>
+        <v>421639</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -12652,18 +12652,18 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13199,7 +13199,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -13210,12 +13210,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13721,7 +13721,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -14176,12 +14176,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -14222,12 +14222,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -14319,7 +14319,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>
@@ -14365,7 +14365,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:15:00</t>
+          <t>2026-02-12T23:21:35</t>
         </is>
       </c>
     </row>

--- a/data/master/employment_master.xlsx
+++ b/data/master/employment_master.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10062,7 +10062,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10154,7 +10154,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10200,7 +10200,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10292,7 +10292,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11120,7 +11120,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11212,7 +11212,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12137,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1435</v>
+        <v>13589</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2758</v>
+        <v>188692</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12229,7 +12229,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>816</v>
+        <v>56486</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12275,27 +12275,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1054</v>
+        <v>68592</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>701</v>
+        <v>91189</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12367,7 +12367,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>431</v>
+        <v>32121</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12413,7 +12413,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>783</v>
+        <v>59443</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12459,7 +12459,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1144</v>
+        <v>129118</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1683</v>
+        <v>120613</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13721,7 +13721,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -14227,7 +14227,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -14319,7 +14319,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
@@ -14365,7 +14365,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2026-02-12T23:21:35</t>
+          <t>2026-02-12T23:29:38</t>
         </is>
       </c>
     </row>
